--- a/param_config/param_data_naninovel.xlsx
+++ b/param_config/param_data_naninovel.xlsx
@@ -1,32 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】\param_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】重制版\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9015F2FD-937F-4D03-8874-07B77E9A154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC204F-4327-4A15-B704-22D685A80843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="8" r:id="rId1"/>
     <sheet name="Sound" sheetId="9" r:id="rId2"/>
     <sheet name="Ambience" sheetId="13" r:id="rId3"/>
-    <sheet name="Background" sheetId="6" r:id="rId4"/>
-    <sheet name="Event" sheetId="7" r:id="rId5"/>
-    <sheet name="Id" sheetId="1" r:id="rId6"/>
-    <sheet name="Speaker" sheetId="5" r:id="rId7"/>
-    <sheet name="Character" sheetId="11" r:id="rId8"/>
-    <sheet name="Pose" sheetId="2" r:id="rId9"/>
-    <sheet name="Animation" sheetId="12" r:id="rId10"/>
-    <sheet name="Movie" sheetId="10" r:id="rId11"/>
-    <sheet name="Transition" sheetId="3" r:id="rId12"/>
-    <sheet name="基础参数模板" sheetId="4" r:id="rId13"/>
+    <sheet name="PackedEffect" sheetId="17" r:id="rId4"/>
+    <sheet name="Effect" sheetId="19" r:id="rId5"/>
+    <sheet name="Camera" sheetId="20" r:id="rId6"/>
+    <sheet name="Background" sheetId="6" r:id="rId7"/>
+    <sheet name="Event" sheetId="7" r:id="rId8"/>
+    <sheet name="Id" sheetId="1" r:id="rId9"/>
+    <sheet name="Speaker" sheetId="5" r:id="rId10"/>
+    <sheet name="Character" sheetId="11" r:id="rId11"/>
+    <sheet name="Varient" sheetId="16" r:id="rId12"/>
+    <sheet name="Pose" sheetId="2" r:id="rId13"/>
+    <sheet name="Tint" sheetId="18" r:id="rId14"/>
+    <sheet name="Animation" sheetId="12" r:id="rId15"/>
+    <sheet name="Movie" sheetId="10" r:id="rId16"/>
+    <sheet name="Dissolve" sheetId="21" r:id="rId17"/>
+    <sheet name="Transition" sheetId="14" r:id="rId18"/>
+    <sheet name="TransitionType" sheetId="15" r:id="rId19"/>
+    <sheet name="Printer" sheetId="22" r:id="rId20"/>
+    <sheet name="基础参数模板" sheetId="4" r:id="rId21"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId22"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="AmbienceList">OFFSET([1]参数表!$C$2,0,0,COUNTA([1]参数表!$C:$C)-1,1)</definedName>
+    <definedName name="AnimationList">OFFSET([1]参数表!$N$2,0,0,COUNTA([1]参数表!$N:$N)-1,1)</definedName>
+    <definedName name="BackgroundList">OFFSET([1]参数表!$D$2,0,0,COUNTA([1]参数表!$D:$D)-1,1)</definedName>
+    <definedName name="CameraList">OFFSET([1]参数表!$O$2,0,0,COUNTA([1]参数表!$O:$O)-1,1)</definedName>
+    <definedName name="CharacterList">OFFSET([1]参数表!$K$2,0,0,COUNTA([1]参数表!$K:$K)-1,1)</definedName>
+    <definedName name="EffectList">OFFSET([1]参数表!$Q$2,0,0,COUNTA([1]参数表!$Q:$Q)-1,1)</definedName>
+    <definedName name="IdList">OFFSET([1]参数表!$E$2,0,0,COUNTA([1]参数表!$E:$E)-1,1)</definedName>
+    <definedName name="MovieList">OFFSET([1]参数表!$R$2,0,0,COUNTA([1]参数表!$R:$R)-1,1)</definedName>
+    <definedName name="MusicList">OFFSET([1]参数表!$A$2,0,0,COUNTA([1]参数表!$A:$A)-1,1)</definedName>
+    <definedName name="PackedEffectList">OFFSET([1]参数表!$P$2,0,0,COUNTA([1]参数表!$P:$P)-1,1)</definedName>
+    <definedName name="PoseList">OFFSET([1]参数表!$I$2,0,0,COUNTA([1]参数表!$I:$I)-1,1)</definedName>
+    <definedName name="SoundList">OFFSET([1]参数表!$B$2,0,0,COUNTA([1]参数表!$B:$B)-1,1)</definedName>
+    <definedName name="SpeakerList">OFFSET([1]参数表!$M$2,0,0,COUNTA([1]参数表!$M:$M)-1,1)</definedName>
+    <definedName name="TintList">OFFSET([1]参数表!$J$2,0,0,COUNTA([1]参数表!$J:$J)-1,1)</definedName>
+    <definedName name="TransitionList">OFFSET([1]参数表!$L$2,0,0,COUNTA([1]参数表!$L:$L)-1,1)</definedName>
+    <definedName name="VarientList">OFFSET([1]参数表!$H$2,0,0,COUNTA([1]参数表!$H:$H)-1,1)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>ExcelParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,23 +94,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>停止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naninovel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartTransOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部转场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartTransNew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合模块_新场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_ambience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氛围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_appearance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@despawn Blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@spawn ShakeCamera params:,3,,,0.8,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@spawn ShakeCamera params:,2,,,0.4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A0BFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转场后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切镜头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转场效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_dissovle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示和隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_printer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +408,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,12 +441,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,9 +459,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{08A118BD-56E3-455A-B004-8A44CBFD9AF8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -159,6 +484,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="测试模版"/>
+      <sheetName val="参数表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Music</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Sound</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Ambience</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Background</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Varient</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>Pose</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Tint</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>Character</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Transition</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>Speaker</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>Animation</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>Camera</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>PackedEffect</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>Effect</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>Movie</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>停止</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>停止</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>停止</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>隐藏</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>BG</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>差分</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>中</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>恢复</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>全隐藏</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>转黑</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>naninovel</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>动画</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>镜头</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>小震动</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>模糊</v>
+          </cell>
+          <cell r="R2" t="str">
+            <v>视频</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>音乐</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>音效</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>氛围</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>背景</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>标签id</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>左</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>夜晚</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>角色</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>转白</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>说话人</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>重置</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>大震动</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>震动</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>全画面</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>右</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>组合模块_新场景</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>转场后</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>取消模糊</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5" t="str">
+            <v>局部转场</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>切镜头</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0EA6C-94B5-4B28-9D79-AE5F33D06CF7}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -433,10 +943,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -447,11 +965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58EBDF9-D3A0-47BB-830B-8DFDC52004A0}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5E86-0F35-431D-B760-B491C7011A1E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -468,6 +986,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -476,11 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2FB37-B05C-42DD-AD48-6F5711AA0F97}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366D178-7CDC-4708-83DB-8F05B13E7EF6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -497,6 +1031,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,11 +1055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204E1CB4-0839-4C3B-A7A7-EACE42D226D8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -526,6 +1076,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -534,11 +1092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD06AC-723F-4A84-9034-732CCFF1C997}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -555,260 +1113,12 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966183FE-893C-4CE5-91A9-7B2DDB5030D5}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9142AB7-47C3-437F-AB38-2468726F6E9E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C90C90F-14F7-48DC-A223-3A21F823BBD9}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F9688-485C-4089-A924-659F7B17ED40}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5E86-0F35-431D-B760-B491C7011A1E}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366D178-7CDC-4708-83DB-8F05B13E7EF6}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +1134,759 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE18EF0-AEBE-4348-BCBF-A1A94009AC4C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58EBDF9-D3A0-47BB-830B-8DFDC52004A0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2FB37-B05C-42DD-AD48-6F5711AA0F97}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF32C34-7DB5-482B-A30F-C4A52DA2D4C1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE5E455-8B28-43AD-99F6-BA5F70869328}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B139D31-73BB-4244-8F5A-942E29743A69}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966183FE-893C-4CE5-91A9-7B2DDB5030D5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8993-2144-488C-A876-54C4032DB63D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD06AC-723F-4A84-9034-732CCFF1C997}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9142AB7-47C3-437F-AB38-2468726F6E9E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A521C93D-9983-4554-8EB8-0FE7DA0F0FDA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E9FB7-4439-4606-A4F6-AC47C23E9D2F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411C9431-5A00-4744-B00C-BA97A5030B47}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C90C90F-14F7-48DC-A223-3A21F823BBD9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F9688-485C-4089-A924-659F7B17ED40}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/param_config/param_data_naninovel.xlsx
+++ b/param_config/param_data_naninovel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】重制版\param_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC204F-4327-4A15-B704-22D685A80843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A4512-1278-4E08-A17B-7EFE90C261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>ExcelParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,26 +286,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@despawn Blur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取消模糊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@spawn ShakeCamera params:,3,,,0.8,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大震动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@spawn ShakeCamera params:,2,,,0.4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小震动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +367,34 @@
   </si>
   <si>
     <t>the_printer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姿势变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_pose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_tint_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@spawn ShakeCamera params:,2,,,0.3,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@spawn ShakeCamera params:,3,,,0.6,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@blur power:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1115,25 +1131,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1146,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE18EF0-AEBE-4348-BCBF-A1A94009AC4C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1168,18 +1192,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1287,10 +1319,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1463,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8993-2144-488C-A876-54C4032DB63D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1483,10 +1515,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,18 +1531,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1598,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A521C93D-9983-4554-8EB8-0FE7DA0F0FDA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1618,26 +1650,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1671,18 +1703,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1716,34 +1748,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/param_config/param_data_naninovel.xlsx
+++ b/param_config/param_data_naninovel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】dev\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A4512-1278-4E08-A17B-7EFE90C261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A77C839-8678-46CA-9BAB-983CD2A7D98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Background" sheetId="6" r:id="rId7"/>
     <sheet name="Event" sheetId="7" r:id="rId8"/>
     <sheet name="Id" sheetId="1" r:id="rId9"/>
-    <sheet name="Speaker" sheetId="5" r:id="rId10"/>
+    <sheet name="Name" sheetId="5" r:id="rId10"/>
     <sheet name="Character" sheetId="11" r:id="rId11"/>
     <sheet name="Varient" sheetId="16" r:id="rId12"/>
     <sheet name="Pose" sheetId="2" r:id="rId13"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5E86-0F35-431D-B760-B491C7011A1E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A521C93D-9983-4554-8EB8-0FE7DA0F0FDA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
